--- a/data/trans_bre/P25_6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1,02</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,53%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-60,67%</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>127,32%</t>
+          <t>-54,33%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>127,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>65,8%</t>
         </is>
       </c>
     </row>
@@ -668,40 +720,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,8</t>
+          <t>-1,22; 2,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 0,64</t>
+          <t>-4,33; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,93</t>
+          <t>-3,97; 3,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,68</t>
+          <t>-4,18; 4,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-1,35; 5,51</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 3,07</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-83,11; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,19</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-53,48%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>-10,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-55,51%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56,33%</t>
         </is>
       </c>
     </row>
@@ -768,40 +860,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,06</t>
+          <t>-2,31; 1,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,78</t>
+          <t>-2,64; 0,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,11</t>
+          <t>-3,13; 2,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-2,56; 2,14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 3,63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-83,15%</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-22,01%</t>
+          <t>-80,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>49,52%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-19,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>128,76%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-65,48%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,0</t>
+          <t>-3,69; -0,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,1</t>
+          <t>-1,36; 2,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,03</t>
+          <t>-1,76; 1,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,64</t>
+          <t>-0,45; 4,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-5,54; 2,44</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 0,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-81,39; 652,99</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-80,47; 706,88</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 518,6</t>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-35,22; 809,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 546,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 150,1</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-0,77</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-55,33%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-39,24%</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>-59,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,75%</t>
+          <t>-44,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-44,27%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-30,47%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-18,73%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-10,73%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,5</t>
+          <t>-5,78; -0,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,94</t>
+          <t>-4,78; 0,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 0,7</t>
+          <t>-6,91; 0,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,72</t>
+          <t>-4,69; 1,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,9; 40,56</t>
+          <t>-4,52; 2,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,85; 44,31</t>
+          <t>-4,3; 2,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,22; 25,56</t>
+          <t>-87,51; 8,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,13; 119,33</t>
+          <t>-79,14; 25,49</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-77,51; 15,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-68,51; 74,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-73,81; 183,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-72,06; 147,38</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-1,13</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-47,19%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-25,43%</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-14,7%</t>
+          <t>-46,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>-23,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-14,98%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-12,26%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-44,81%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 0,26</t>
+          <t>-14,02; -0,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 2,18</t>
+          <t>-5,84; 2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 3,19</t>
+          <t>-8,41; 3,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,07</t>
+          <t>-4,92; 8,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,58; 10,07</t>
+          <t>-7,28; 4,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-66,13; 52,78</t>
+          <t>-9,15; 0,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-60,44; 58,85</t>
+          <t>-74,82; 9,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-56,24; 62,76</t>
+          <t>-62,75; 48,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-63,91; 51,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-43,53; 120,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-55,59; 76,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-75,88; 14,49</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>2,49</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-6,86%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 7,22</t>
+          <t>-8,61; 9,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 11,83</t>
+          <t>-4,08; 11,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 10,73</t>
+          <t>-3,76; 13,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 12,9</t>
+          <t>-9,31; 9,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 48,64</t>
+          <t>-6,56; 13,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 86,44</t>
+          <t>-10,22; 8,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 61,59</t>
+          <t>-33,83; 61,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,66; 100,94</t>
+          <t>-17,28; 76,75</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-15,87; 79,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-37,66; 62,12</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-30,08; 103,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-39,9; 56,62</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>1,31</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-18,28%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,31%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,03</t>
+          <t>-2,86; 1,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,49</t>
+          <t>-1,11; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,41</t>
+          <t>-1,33; 2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,7</t>
+          <t>-1,65; 3,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 20,41</t>
+          <t>-1,0; 3,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 54,55</t>
+          <t>-2,45; 2,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 44,58</t>
+          <t>-37,25; 23,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 81,23</t>
+          <t>-17,64; 53,55</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 51,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-20,49; 54,78</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 84,59</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-32,4; 49,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
